--- a/Doc_log/log_201508030113_张玉龙.xlsx
+++ b/Doc_log/log_201508030113_张玉龙.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9924"/>
+    <workbookView windowWidth="15455" windowHeight="8387"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
   <si>
     <t>日期</t>
   </si>
@@ -42,6 +42,18 @@
   </si>
   <si>
     <t>需要学习火车收集器的使用规则，开始收集高校图书馆信息</t>
+  </si>
+  <si>
+    <t>14：00-16：50 20：00-21：00</t>
+  </si>
+  <si>
+    <t>明确组员分工以及需要解决的技术难题，明白自己的任务</t>
+  </si>
+  <si>
+    <t>初步分工完成</t>
+  </si>
+  <si>
+    <t>收集高校图书馆的url</t>
   </si>
   <si>
     <t>周次</t>
@@ -55,12 +67,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,22 +82,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -98,38 +125,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,34 +141,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -181,7 +156,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -196,25 +171,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,187 +234,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,50 +425,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -491,6 +452,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -502,6 +487,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,154 +530,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -1028,17 +1036,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="10.7777777777778"/>
-    <col min="2" max="2" width="16.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="15.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="16.4444444444444" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.8888888888889" customWidth="1"/>
     <col min="4" max="4" width="21.8888888888889" customWidth="1"/>
     <col min="5" max="5" width="18.3333333333333" customWidth="1"/>
   </cols>
@@ -1047,7 +1055,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1061,20 +1069,37 @@
       </c>
     </row>
     <row r="2" ht="75" customHeight="1" spans="1:5">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>43278</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="3" ht="28.8" spans="1:5">
+      <c r="A3" s="2">
+        <v>43279</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1100,7 +1125,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1109,7 +1134,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Doc_log/log_201508030113_张玉龙.xlsx
+++ b/Doc_log/log_201508030113_张玉龙.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15455" windowHeight="8387"/>
+    <workbookView windowWidth="22943" windowHeight="9924"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>日期</t>
   </si>
@@ -54,6 +54,30 @@
   </si>
   <si>
     <t>收集高校图书馆的url</t>
+  </si>
+  <si>
+    <t>8：00-11：00</t>
+  </si>
+  <si>
+    <t>爬取中原工学院的图书馆新闻页</t>
+  </si>
+  <si>
+    <t>爬虫基本完成，输出格式有待改进</t>
+  </si>
+  <si>
+    <t>继续学习爬虫，爬取其他学校</t>
+  </si>
+  <si>
+    <t>14:30-16：00</t>
+  </si>
+  <si>
+    <t>学习requests这个库的知识</t>
+  </si>
+  <si>
+    <t>学习了一部分，还需要继续学习</t>
+  </si>
+  <si>
+    <t>明天的任务根据教程搭建自己的节点</t>
   </si>
   <si>
     <t>周次</t>
@@ -67,10 +91,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -88,9 +112,122 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,122 +241,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,187 +258,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,6 +449,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -439,39 +474,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,18 +497,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,6 +525,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -533,10 +557,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -548,134 +572,134 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -686,6 +710,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1036,13 +1063,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="10.7777777777778"/>
     <col min="2" max="2" width="16.4444444444444" style="1" customWidth="1"/>
@@ -1075,13 +1102,13 @@
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1100,6 +1127,40 @@
       </c>
       <c r="E3" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="28.8" spans="1:5">
+      <c r="A4" s="2">
+        <v>43280</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" ht="28.8" spans="1:5">
+      <c r="A5" s="2">
+        <v>43280</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1125,7 +1186,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1134,7 +1195,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Doc_log/log_201508030113_张玉龙.xlsx
+++ b/Doc_log/log_201508030113_张玉龙.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>日期</t>
   </si>
@@ -78,6 +78,15 @@
   </si>
   <si>
     <t>明天的任务根据教程搭建自己的节点</t>
+  </si>
+  <si>
+    <t>12：00-13：00</t>
+  </si>
+  <si>
+    <t>明确今天的任务是在自己的虚拟机上搭建spark，启动两个节点，构思自己节点的布局以及整体布局</t>
+  </si>
+  <si>
+    <t>目标明确，布局初步构思，还需在搭建的时候具体分析</t>
   </si>
   <si>
     <t>周次</t>
@@ -91,10 +100,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -120,14 +129,44 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -135,32 +174,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -172,11 +190,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -188,62 +252,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,187 +267,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,11 +463,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,6 +511,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,57 +550,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,10 +566,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -569,133 +578,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -709,10 +718,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1063,13 +1072,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="10.7777777777778"/>
     <col min="2" max="2" width="16.4444444444444" style="1" customWidth="1"/>
@@ -1136,13 +1145,13 @@
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1150,17 +1159,31 @@
       <c r="A5" s="2">
         <v>43280</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="1" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="6" ht="57.6" spans="1:4">
+      <c r="A6" s="2">
+        <v>43281</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1186,7 +1209,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1195,7 +1218,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Doc_log/log_201508030113_张玉龙.xlsx
+++ b/Doc_log/log_201508030113_张玉龙.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>日期</t>
   </si>
@@ -87,6 +87,18 @@
   </si>
   <si>
     <t>目标明确，布局初步构思，还需在搭建的时候具体分析</t>
+  </si>
+  <si>
+    <t>15：00-19：00</t>
+  </si>
+  <si>
+    <t>在centos7虚拟机中，将自己的两个节点跑起来，并与master联机，实现spark集群</t>
+  </si>
+  <si>
+    <t>在虚拟机中，jdk,scala,hadoop,spark安装成功，环境变量修改成功，两个节点已经成功搭建</t>
+  </si>
+  <si>
+    <t>没有进行获取master公钥的操作，还需要进一步改善，实现与控制节点的链接，建立spark集群。</t>
   </si>
   <si>
     <t>周次</t>
@@ -100,10 +112,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -111,13 +123,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -143,6 +148,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -151,24 +184,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,60 +217,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,187 +279,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,36 +478,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,8 +500,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,8 +535,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,17 +570,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -566,10 +578,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -578,133 +590,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1072,19 +1084,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="10.7777777777778"/>
-    <col min="2" max="2" width="16.4444444444444" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.8888888888889" customWidth="1"/>
-    <col min="4" max="4" width="21.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="18.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="13.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="18.6666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="33.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1179,11 +1191,28 @@
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="7" ht="86.4" spans="1:5">
+      <c r="A7" s="2">
+        <v>43281</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1209,7 +1238,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1218,7 +1247,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Doc_log/log_201508030113_张玉龙.xlsx
+++ b/Doc_log/log_201508030113_张玉龙.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>日期</t>
   </si>
@@ -99,6 +99,18 @@
   </si>
   <si>
     <t>没有进行获取master公钥的操作，还需要进一步改善，实现与控制节点的链接，建立spark集群。</t>
+  </si>
+  <si>
+    <t>14：00-16：40</t>
+  </si>
+  <si>
+    <t>与中心节点进行连接，将他的公钥加到自己的虚拟机上，使其可以通过ssh控制自己的节点以及spark环境的启动</t>
+  </si>
+  <si>
+    <t>出现无法ssh连接的情款，通过分析查找，发现在校网的局域网中两台主机是无法互相访问的，将配置文件的IP地址换为实验室的局域网，解决此问题，可以访问控制</t>
+  </si>
+  <si>
+    <t>除了遇到的访问问题还有虚拟机与window系统端口映射问题，通过查找解决了ssh问题，将中心控制节点的公钥添加到自己的虚拟机中，准备通过中央控制启动spark集群</t>
   </si>
   <si>
     <t>周次</t>
@@ -113,9 +125,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -128,6 +140,21 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,15 +175,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,8 +206,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,14 +238,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -217,23 +254,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,22 +269,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,187 +291,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,6 +482,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -483,25 +510,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,32 +559,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,10 +590,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -590,137 +602,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -731,6 +743,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1084,13 +1099,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="13.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="18.6666666666667" style="1" customWidth="1"/>
@@ -1150,7 +1165,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="28.8" spans="1:5">
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>43280</v>
       </c>
@@ -1167,7 +1182,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" ht="28.8" spans="1:5">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>43280</v>
       </c>
@@ -1184,7 +1199,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" ht="57.6" spans="1:4">
+    <row r="6" ht="43.2" spans="1:4">
       <c r="A6" s="2">
         <v>43281</v>
       </c>
@@ -1198,21 +1213,38 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" ht="86.4" spans="1:5">
+    <row r="7" ht="57.6" spans="1:5">
       <c r="A7" s="2">
         <v>43281</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="1" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="8" ht="72" spans="1:5">
+      <c r="A8" s="2">
+        <v>43283</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1238,7 +1270,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1247,7 +1279,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Doc_log/log_201508030113_张玉龙.xlsx
+++ b/Doc_log/log_201508030113_张玉龙.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>日期</t>
   </si>
@@ -111,6 +111,18 @@
   </si>
   <si>
     <t>除了遇到的访问问题还有虚拟机与window系统端口映射问题，通过查找解决了ssh问题，将中心控制节点的公钥添加到自己的虚拟机中，准备通过中央控制启动spark集群</t>
+  </si>
+  <si>
+    <t>12：00-15：00</t>
+  </si>
+  <si>
+    <t>听取老师的建议后，用爬虫爬取图书馆的新闻，写了一个爬取高校图书馆的通用代码，完成数据搜集</t>
+  </si>
+  <si>
+    <t>写了一个代码模型，顺利的爬取了中原工学院图书馆的新闻信息，删除了以前用信息搜索软件搜集的信息以及相关文档，主要是那些软件不够便捷与收费</t>
+  </si>
+  <si>
+    <t>写好了代码后进行量产，需要先搜集高校此网页的IP地址以及分析其url规则</t>
   </si>
   <si>
     <t>周次</t>
@@ -124,10 +136,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -138,6 +150,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -146,15 +220,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,9 +256,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,22 +265,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,7 +273,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,61 +287,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,187 +303,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,76 +497,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,8 +524,73 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,10 +602,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -602,133 +614,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1099,13 +1111,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="13.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="18.6666666666667" style="1" customWidth="1"/>
@@ -1240,11 +1252,28 @@
       <c r="C8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="1" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="9" ht="72" spans="1:5">
+      <c r="A9" s="2">
+        <v>43284</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1270,7 +1299,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1279,7 +1308,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Doc_log/log_201508030113_张玉龙.xlsx
+++ b/Doc_log/log_201508030113_张玉龙.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <t>日期</t>
   </si>
@@ -113,7 +113,7 @@
     <t>除了遇到的访问问题还有虚拟机与window系统端口映射问题，通过查找解决了ssh问题，将中心控制节点的公钥添加到自己的虚拟机中，准备通过中央控制启动spark集群</t>
   </si>
   <si>
-    <t>12：00-15：00</t>
+    <t>14：00-17：00</t>
   </si>
   <si>
     <t>听取老师的建议后，用爬虫爬取图书馆的新闻，写了一个爬取高校图书馆的通用代码，完成数据搜集</t>
@@ -123,6 +123,18 @@
   </si>
   <si>
     <t>写好了代码后进行量产，需要先搜集高校此网页的IP地址以及分析其url规则</t>
+  </si>
+  <si>
+    <t>18：00-21：00</t>
+  </si>
+  <si>
+    <t>根据实际的网页结构来改变代码，爬取本学校和其他学校的图书馆新闻，并将源码和输出的文本上传到github上</t>
+  </si>
+  <si>
+    <t>爬取成功，已将需上传的信息上传到了github上，具体情况具体分析</t>
+  </si>
+  <si>
+    <t>每一个学校的网页结构区别还是比较大的，具体的网页需要做出相应的改变，有时候还会出现爬取不到得情况，有可能是beautifulsoup筛选的标签不唯一</t>
   </si>
   <si>
     <t>周次</t>
@@ -138,13 +150,133 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -166,129 +298,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,187 +315,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,74 +506,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -594,6 +538,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -602,10 +614,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -614,133 +626,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1111,10 +1123,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1266,14 +1278,31 @@
       <c r="B9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="1" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="10" ht="57.6" spans="1:5">
+      <c r="A10" s="2">
+        <v>43284</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1299,7 +1328,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1308,7 +1337,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Doc_log/log_201508030113_张玉龙.xlsx
+++ b/Doc_log/log_201508030113_张玉龙.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>日期</t>
   </si>
@@ -135,6 +135,18 @@
   </si>
   <si>
     <t>每一个学校的网页结构区别还是比较大的，具体的网页需要做出相应的改变，有时候还会出现爬取不到得情况，有可能是beautifulsoup筛选的标签不唯一</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9：00-11：30  14：00-16：00</t>
+  </si>
+  <si>
+    <t>爬取包括河南工业大学，河南科技大学在内的大学的图书馆新闻信息</t>
+  </si>
+  <si>
+    <t>爬取了包括计划中的大学的图书馆信息，还爬取了郑州幼儿师范，华北水利水电的信息</t>
+  </si>
+  <si>
+    <t>继续爬取其他学校的图书馆新闻信息</t>
   </si>
   <si>
     <t>周次</t>
@@ -148,10 +160,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -163,21 +175,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -185,52 +219,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,6 +256,22 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -290,17 +295,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,61 +327,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,121 +495,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,36 +518,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -554,11 +536,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,15 +571,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -606,6 +585,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -614,10 +626,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -626,133 +638,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1123,10 +1135,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1295,14 +1307,31 @@
       <c r="B10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="1" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="11" ht="43.2" spans="1:5">
+      <c r="A11" s="2">
+        <v>43285</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1328,7 +1357,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1337,7 +1366,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Doc_log/log_201508030113_张玉龙.xlsx
+++ b/Doc_log/log_201508030113_张玉龙.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
   <si>
     <t>日期</t>
   </si>
@@ -147,6 +147,15 @@
   </si>
   <si>
     <t>继续爬取其他学校的图书馆新闻信息</t>
+  </si>
+  <si>
+    <t>14：00-17：30</t>
+  </si>
+  <si>
+    <t>将10所大学的图书馆信息全部爬取完毕，并整理，上传到github上</t>
+  </si>
+  <si>
+    <t>信息上传成功</t>
   </si>
   <si>
     <t>周次</t>
@@ -160,10 +169,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -175,58 +184,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,9 +213,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,6 +290,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -313,6 +315,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,187 +336,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,21 +527,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -560,6 +554,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -567,6 +576,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,15 +627,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -626,10 +635,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -638,133 +647,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1135,10 +1144,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1324,14 +1333,28 @@
       <c r="B11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E11" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="12" ht="28.8" spans="1:4">
+      <c r="A12" s="2">
+        <v>43286</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1357,7 +1380,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1366,7 +1389,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Doc_log/log_201508030113_张玉龙.xlsx
+++ b/Doc_log/log_201508030113_张玉龙.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
   <si>
     <t>日期</t>
   </si>
@@ -156,6 +156,15 @@
   </si>
   <si>
     <t>信息上传成功</t>
+  </si>
+  <si>
+    <t>将数据进一步完善，为进入spark做准备</t>
+  </si>
+  <si>
+    <t>优化了中原工的代码，并为了数据进入spark将文件名做了修改</t>
+  </si>
+  <si>
+    <t>准备进行数据清洗</t>
   </si>
   <si>
     <t>周次</t>
@@ -170,9 +179,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -183,6 +192,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -192,7 +216,91 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,115 +321,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,13 +345,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,13 +465,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,151 +483,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,6 +536,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -545,26 +602,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,45 +636,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -635,10 +644,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -647,133 +656,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1144,10 +1153,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1350,11 +1359,28 @@
       <c r="B12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D12" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="13" ht="28.8" spans="1:5">
+      <c r="A13" s="2">
+        <v>43287</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1380,7 +1406,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1389,7 +1415,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Doc_log/log_201508030113_张玉龙.xlsx
+++ b/Doc_log/log_201508030113_张玉龙.xlsx
@@ -8,14 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="2" r:id="rId1"/>
-    <sheet name="周报" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
   <si>
     <t>日期</t>
   </si>
@@ -167,10 +166,19 @@
     <t>准备进行数据清洗</t>
   </si>
   <si>
-    <t>周次</t>
-  </si>
-  <si>
-    <t>问题及后续计划</t>
+    <t>13：00-16：00</t>
+  </si>
+  <si>
+    <t>研究数据清洗，文本分类算法</t>
+  </si>
+  <si>
+    <t>由于Scala语言基础，算法实现不太理想</t>
+  </si>
+  <si>
+    <t>根据算法改良爬取的数据，实现算法</t>
+  </si>
+  <si>
+    <t>在控制台可以输出10篇相似度最高的新闻</t>
   </si>
 </sst>
 </file>
@@ -179,9 +187,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -192,6 +200,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -200,23 +257,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,20 +297,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -260,77 +305,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,13 +353,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,13 +461,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,151 +533,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,6 +544,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -550,15 +567,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,6 +591,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,26 +644,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -644,10 +652,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -656,133 +664,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1153,10 +1161,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1376,46 +1384,39 @@
       <c r="C13" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E13" t="s">
         <v>49</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D$1:D$1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
-  <cols>
-    <col min="4" max="4" width="19.1111111111111" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="14" ht="28.8" spans="1:4">
+      <c r="A14" s="2">
+        <v>43289</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C14" t="s">
         <v>51</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" ht="28.8" spans="1:4">
+      <c r="A15" s="2">
+        <v>43290</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
